--- a/downloaded_files/MDPS241_Lecture-35897.xlsx
+++ b/downloaded_files/MDPS241_Lecture-35897.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Zeyad Ahmad Aydarous Mohamed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>4250182</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -919,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.5857145486</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.7527771991</x:v>
+        <x:v>45918.5857145486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.5882261574</x:v>
+        <x:v>45916.7527771991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45918.5882261574</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS241_Lecture-35897.xlsx
+++ b/downloaded_files/MDPS241_Lecture-35897.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Abu Bakr Atef Mahmoud Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد باسم وجيه رجب الخولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Bassem Wagih Ragab Elkholy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240283</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>ahmed kahled makbouly mohamed abdo</x:t>
   </x:si>
   <x:si>
+    <x:t>1240008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد طارق منير يوسف المنوفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240016</x:t>
   </x:si>
   <x:si>
@@ -78,6 +96,15 @@
     <x:t>Islam Amr Ahmed Nassar</x:t>
   </x:si>
   <x:si>
+    <x:t>1240177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اكرم تيسير فهيم عبد الحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِ Akram Tisser Fahim Abdel Halim</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250206</x:t>
   </x:si>
   <x:si>
@@ -105,6 +132,15 @@
     <x:t>Zeyad Ahmad Aydarous Mohamed Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>1240225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سعد عبد الغني صباغ شرباتي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>2250002</x:t>
   </x:si>
   <x:si>
@@ -123,6 +159,15 @@
     <x:t>Ali Mohamed Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>1240132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد محمد سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Mohamed Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250212</x:t>
   </x:si>
   <x:si>
@@ -148,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Moustafa Kamal Mohamed Gamal Abelhamid Khalid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هادى عبدالعال رضا عبدالعال سلطان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hady Abdelaal Reda</x:t>
   </x:si>
   <x:si>
     <x:t>1240278</x:t>
@@ -281,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -704,7 +758,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45916.7304643519</x:v>
+        <x:v>45918.9066329861</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -736,7 +790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45918.5806504282</x:v>
+        <x:v>45916.7304643519</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45918.9077563657</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45918.3404549769</x:v>
+        <x:v>45918.5806504282</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.5818118056</x:v>
+        <x:v>45918.3404549769</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.5824648148</x:v>
+        <x:v>45918.9103576389</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45918.5818118056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45918.5824648148</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.5857145486</x:v>
+        <x:v>45918.9111658912</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.7527771991</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.5882261574</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45918.9087421643</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1191,198 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45917.3417125</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45918.5857145486</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45916.7527771991</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45918.909431713</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45918.5882261574</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS241_Lecture-35897.xlsx
+++ b/downloaded_files/MDPS241_Lecture-35897.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Ahmed mohamed aly younes omar</x:t>
   </x:si>
   <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -139,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>saad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>2250002</x:t>
@@ -335,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -886,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.3404549769</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.9103576389</x:v>
+        <x:v>45918.3404549769</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45918.9103576389</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.5818118056</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.5824648148</x:v>
+        <x:v>45918.5818118056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.9111658912</x:v>
+        <x:v>45918.5824648148</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45918.9111658912</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.9087421643</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.5857145486</x:v>
+        <x:v>45918.9087421643</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.7527771991</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.909431713</x:v>
+        <x:v>45918.5857145486</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.5882261574</x:v>
+        <x:v>45916.7527771991</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45918.909431713</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1401,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45918.5882261574</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS241_Lecture-35897.xlsx
+++ b/downloaded_files/MDPS241_Lecture-35897.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdallah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240016</x:t>
   </x:si>
   <x:si>
@@ -139,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Zeyad Ahmad Aydarous Mohamed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد شريف سامى محمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ziad sherief sami</x:t>
   </x:si>
   <x:si>
     <x:t>1240225</x:t>
@@ -353,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -872,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45918.5806504282</x:v>
+        <x:v>45922.3597762384</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.4327795949</x:v>
+        <x:v>45918.5806504282</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.3404549769</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.9103576389</x:v>
+        <x:v>45918.3404549769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45918.9103576389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.5818118056</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.5824648148</x:v>
+        <x:v>45918.5818118056</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.9111658912</x:v>
+        <x:v>45918.5824648148</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45922.4502675926</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45918.9111658912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.9087421643</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.5857145486</x:v>
+        <x:v>45918.9087421643</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.7527771991</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.909431713</x:v>
+        <x:v>45918.5857145486</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.5882261574</x:v>
+        <x:v>45916.7527771991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45918.909431713</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1483,70 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45918.5882261574</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS241_Lecture-35897.xlsx
+++ b/downloaded_files/MDPS241_Lecture-35897.xlsx
@@ -75,7 +75,7 @@
     <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
+    <x:t>Ahmed Mohammed Abdullah Hassan Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1240016</x:t>

--- a/downloaded_files/MDPS241_Lecture-35897.xlsx
+++ b/downloaded_files/MDPS241_Lecture-35897.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>saad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما طارق محمود جاب الله سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
   </x:si>
   <x:si>
     <x:t>4250179</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45937.8101992245</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.9087421643</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45918.9087421643</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.5857145486</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.7527771991</x:v>
+        <x:v>45918.5857145486</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.909431713</x:v>
+        <x:v>45916.7527771991</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.5882261574</x:v>
+        <x:v>45918.909431713</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45918.5882261574</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
